--- a/biology/Botanique/Johann_Heinrich_Leberecht_Pistorius/Johann_Heinrich_Leberecht_Pistorius.xlsx
+++ b/biology/Botanique/Johann_Heinrich_Leberecht_Pistorius/Johann_Heinrich_Leberecht_Pistorius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Heinrich Leberecht Pistorius, né le 21 février 1777 à Loburg (duché de Magdebourg) et mort le 27 octobre 1858 à Weissensee (Brandebourg), était un commerçant et agriculteur prussien.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issu d'une famille originaire de la région de Magdebourg, Johann Pistorius étudia au lycée de Joachimsthal à Berlin. Il approfondit par la suite ses connaissances en chimie et s'intéressa à la distillation, et plus particulièrement à la production d'eau-de-vie de pomme de terre (Kartoffelschnaps). On lui doit l'invention en 1817 de l'appareil de Pistorius, qui révolutionna la production de l'eau-de-vie et l'agriculture dans le Brandebourg[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu d'une famille originaire de la région de Magdebourg, Johann Pistorius étudia au lycée de Joachimsthal à Berlin. Il approfondit par la suite ses connaissances en chimie et s'intéressa à la distillation, et plus particulièrement à la production d'eau-de-vie de pomme de terre (Kartoffelschnaps). On lui doit l'invention en 1817 de l'appareil de Pistorius, qui révolutionna la production de l'eau-de-vie et l'agriculture dans le Brandebourg.
 En 1821, il acquit le manoir de Weissensee et en fit un domaine modèle. Il y développa la culture de pommes de terre pour la production d'eau-de-vie et l'élevage. Pendant de longues années, Pistorius était député du conseil de l'arrondissement du Bas-Barnim au sein du district de Potsdam.
 Après sa mort en 1858, il fut inhumé dans le mausolée qu'il avait fait construire près de l'église paroissiale de Weissensee. Son nom a été donné à une rue (Pistoriusstraße) et à une place (Pistoriusplatz) de Berlin-Weissensee.
 </t>
